--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2020-11-02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2020-11-08" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -475,4 +476,111 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sr. No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Job</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time-Stamp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SpO2_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sachin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>xyz/xyz</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>coder</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14:24:41</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>93.10171335021791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sachin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>xyz/xyz</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>coder</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:26:27</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>93.83166958817134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,38 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_withD\spo2_webInterface\Spo2_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BE8901-51C5-4F49-946B-D0F03F2061D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10668" windowWidth="13560" xWindow="9480" yWindow="660"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="13560" windowHeight="10668" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2020-11-02" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2020-11-08" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-11-02" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-11-08" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-11-09" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Time-Stamp</t>
+  </si>
+  <si>
+    <t>SpO2_value</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>xyz/xyz</t>
+  </si>
+  <si>
+    <t>coder</t>
+  </si>
+  <si>
+    <t>17:59:20</t>
+  </si>
+  <si>
+    <t>18:02:11</t>
+  </si>
+  <si>
+    <t>14:24:41</t>
+  </si>
+  <si>
+    <t>14:26:27</t>
+  </si>
+  <si>
+    <t>14:34:08</t>
+  </si>
+  <si>
+    <t>14:34:48</t>
+  </si>
+  <si>
+    <t>14:38:43</t>
+  </si>
+  <si>
+    <t>14:43:33</t>
+  </si>
+  <si>
+    <t>14:46:28</t>
+  </si>
+  <si>
+    <t>14:46:45</t>
+  </si>
+  <si>
+    <t>14:47:53</t>
+  </si>
+  <si>
+    <t>14:48:28</t>
+  </si>
+  <si>
+    <t>14:52:45</t>
+  </si>
+  <si>
+    <t>00:27:31</t>
+  </si>
+  <si>
+    <t>00:27:50</t>
+  </si>
+  <si>
+    <t>00:31:39</t>
+  </si>
+  <si>
+    <t>16:33:07</t>
+  </si>
+  <si>
+    <t>16:43:46</t>
+  </si>
+  <si>
+    <t>16:45:24</t>
+  </si>
+  <si>
+    <t>dishant</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,26 +147,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -354,233 +471,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sr. No</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Job</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time-Stamp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SpO2_value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sachin</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>xyz/xyz</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>coder</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17:59:20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>98</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sachin</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>xyz/xyz</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>coder</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18:02:11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>96.41376326656969</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>96.413763266569688</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>93.101713350217906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>93.831669588171337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>95.110715467826154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>98.710612451848831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>96.745286207119349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>98.006575705483982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>97.964975593311266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>98.341575575962707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>96.160155975280347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>95.573962831878774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>95.742753729454805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sr. No</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Job</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time-Stamp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SpO2_value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sachin</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>xyz/xyz</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>coder</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>14:24:41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>93.10171335021791</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sachin</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>xyz/xyz</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>coder</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>14:26:27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>93.83166958817134</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>96.284684524073185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>97.382868939926482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>94.727971708351774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>98.037945094926727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>96.881512022933066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>95.69415133160085</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>